--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,148 +460,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leche Concentrada Sin Lactosa Gloria Lata 400 gr</t>
+          <t>Azúcar Rubia Dulfina Bolsa 1 kg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S/4.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Semidescremada Light Gloria Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S/4.30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Niños Gloria Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S/4.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Entera Gloria Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>S/3.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Descremada Gloria Pack de 6 unid Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>S/26.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Leche Concentrada Sin Lactosa Gloria Pack de 6 unid Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S/23.30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Semidescremada Light Gloria Pack de 6 unid Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S/21.90</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Niños Gloria Pack de 6 unid Lata 400 gr</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>S/21.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Leche Evaporada Entera Gloria Pack de 6un 400g</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>S/21.60</t>
+          <t>S/5.70</t>
         </is>
       </c>
     </row>
@@ -616,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,98 +513,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LECHE SIN LACTOSA GLORIA 400 GR</t>
+          <t>AZÚCAR RUBIA DULFINA 1 KG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>s/ 4.9 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LECHE EVAPORADA GLORIA LIGHT 400 GR</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>s/ 4.7 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LECHE EVAPORADA NIÑOS DEFENSA GLORIA 400 GR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>s/ 4.5 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LECHE EVAPORADA GLORIA 400 GR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>s/ 4.4 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SIX PACK LECHE EVAPORADA DESCREMADA GLORIA 400 GR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>s/ 27.2 UN</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tottus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SIX PACK LECHE EVAPORADA NIÑOS DHA GLORIA 400 GR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>s/ 22.4 UN
-s/ 23 UN</t>
+          <t>s/ 5.2 UN</t>
         </is>
       </c>
     </row>
@@ -755,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,131 +566,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leche GLORIA Evaporada Sin Lactosa Lata 400g</t>
+          <t>Azúcar Rubia DULFINA Bolsa 1Kg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S/ 4.50 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Leche Evaporada GLORIA Light Lata 400g</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S/ 4.30 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Leche GLORIA Evaporada Entera Lata 400g</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S/ 3.99 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Leche GLORIA Evaporada Descremada Lata 400g Pa...</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>S/ 26.50 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Leche Evaporada GLORIA sin Lactosa Lata 400g P...</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>S/ 22.80 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Leche Evaporada GLORIA Light Lata 400g Paquete...</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S/ 21.60 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Leche GLORIA Evaporada Entera Lata 400g Paquet...</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S/ 21.60 un</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Plaza Vea</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Leche GLORIA Evaporada Niños Lata 400g Paquete...</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>S/ 21.60 un</t>
+          <t>S/ 4.89 un</t>
         </is>
       </c>
     </row>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,12 +460,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Azúcar Rubia Máxima Bolsa 1 kg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S/5.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Metro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia Metro Bolsa 1 kg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S/5.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Metro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia Cuisine&amp;Co Bolsa 1 kg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S/5.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Metro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Azúcar Rubia Dulfina Bolsa 1 kg</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>S/5.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Metro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia Paramonga 1kg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S/5.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Metro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia Costeño 1 kg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S/5.90</t>
         </is>
       </c>
     </row>
@@ -480,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,10 +598,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>AZÚCAR RUBIA TOTTUS 1 KG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s/ 4.7 UN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tottus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>AZÚCAR RUBIA DULFINA 1 KG</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>s/ 5.2 UN</t>
         </is>
@@ -533,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +668,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Azúcar Rubia BELL'S Bolsa 1Kg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S/ 4.49 un</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Plaza Vea</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia CARTAVIO Bolsa 1Kg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S/ 4.80 un</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Plaza Vea</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Azúcar Rubia DULFINA Bolsa 1Kg</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>S/ 4.89 un</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Plaza Vea</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia BELL'S Selección Bolsa 1K</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S/ 5.30 un</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Plaza Vea</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia BELL'S Bolsa 1.3Kg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S/ 5.70 un</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Plaza Vea</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azúcar Rubia COSTEÑO Bolsa 1Kg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S/ 5.90 un</t>
         </is>
       </c>
     </row>
